--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei Siang\Documents\SUTD\Term 8\30.201 Wireless Communications and Internet of Things\Project\Code\github\iot_window\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9814B33-B1B0-4AAE-B084-4FADADF93CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6E1E88-FF5B-4B18-AA03-002C928502E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC41D096-897E-4628-81D4-8ACEDA9C397F}"/>
   </bookViews>
@@ -191,7 +191,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -531,7 +531,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
